--- a/input_BAT2050.xlsx
+++ b/input_BAT2050.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA6FC4-315B-4319-B473-EC1A5E384D98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{504E2F97-DEE9-4EF8-86E5-854BF7A45FBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" tabRatio="912" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4596" tabRatio="912" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,7 @@
     <sheet name="Restrictions" sheetId="6" r:id="rId7"/>
     <sheet name="EnergyTypes" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -305,7 +298,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -314,7 +307,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 In MJ/kg
@@ -327,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="908">
   <si>
     <t>Name</t>
   </si>
@@ -3015,9 +3008,6 @@
   </si>
   <si>
     <t>1-bm_MeOH</t>
-  </si>
-  <si>
-    <t>BM-MeOh</t>
   </si>
   <si>
     <t>1-bm_dme</t>
@@ -3063,7 +3053,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3099,19 +3089,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3191,10 +3168,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3210,7 +3187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3248,9 +3224,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -3659,18 +3637,18 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3677,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3728,7 +3706,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>858</v>
       </c>
@@ -3757,7 +3735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3815,7 +3793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>829</v>
       </c>
@@ -3859,16 +3837,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3869,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -3904,7 +3882,7 @@
       <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>471.7</v>
       </c>
       <c r="F2" s="11">
@@ -3914,7 +3892,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -3927,7 +3905,7 @@
       <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <v>1</v>
       </c>
       <c r="F3" s="11">
@@ -3937,7 +3915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -3950,7 +3928,7 @@
       <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>5.6</v>
       </c>
       <c r="F4" s="11">
@@ -3960,7 +3938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -3973,7 +3951,7 @@
       <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>102.2</v>
       </c>
       <c r="F5" s="11">
@@ -3983,7 +3961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -3996,7 +3974,7 @@
       <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>266.8</v>
       </c>
       <c r="F6" s="11">
@@ -4006,7 +3984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>831</v>
       </c>
@@ -4019,7 +3997,7 @@
       <c r="D7" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>160</v>
       </c>
       <c r="F7" s="11">
@@ -4039,40 +4017,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="32" customWidth="1"/>
     <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4075,7 @@
       <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>887</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -4137,7 +4115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -4162,14 +4140,14 @@
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="47">
         <v>80</v>
       </c>
-      <c r="K2" s="8">
-        <v>250</v>
+      <c r="K2" s="43">
+        <v>275</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>10</v>
@@ -4198,7 +4176,7 @@
         <v>0.13978494623655915</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>832</v>
       </c>
@@ -4223,13 +4201,13 @@
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="47">
         <v>80</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="43">
         <v>300</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -4255,7 +4233,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>860</v>
       </c>
@@ -4265,7 +4243,7 @@
       <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.97802197802197799</v>
       </c>
       <c r="E4" s="14">
@@ -4280,14 +4258,14 @@
       <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="51">
         <v>80</v>
       </c>
-      <c r="K4" s="15">
-        <v>130</v>
+      <c r="K4" s="43">
+        <v>125</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>859</v>
@@ -4309,7 +4287,7 @@
       <c r="U4" s="14"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -4334,14 +4312,14 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="47">
         <v>80</v>
       </c>
-      <c r="K5" s="8">
-        <v>190</v>
+      <c r="K5" s="43">
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4362,7 +4340,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -4387,14 +4365,14 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="47">
         <v>80</v>
       </c>
-      <c r="K6" s="8">
-        <v>220</v>
+      <c r="K6" s="43">
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>19</v>
@@ -4415,166 +4393,166 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
         <v>0.52800000000000002</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>999999</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="47">
         <v>80</v>
       </c>
-      <c r="K7" s="18">
-        <v>160</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="43">
+        <v>150</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>1</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="B8" s="38">
-        <v>0</v>
-      </c>
-      <c r="C8" s="39">
-        <v>0</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="B8" s="37">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
         <v>0.55684879288437106</v>
       </c>
-      <c r="E8" s="40">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
         <v>50</v>
       </c>
-      <c r="G8" s="40">
-        <v>0</v>
-      </c>
-      <c r="H8" s="41">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="J8" s="41">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="43" t="s">
+      <c r="J8" s="47">
+        <v>80</v>
+      </c>
+      <c r="K8" s="55">
+        <v>225</v>
+      </c>
+      <c r="L8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="41">
         <v>1</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="41">
         <v>1</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-    </row>
-    <row r="9" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+    </row>
+    <row r="9" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="B9" s="38">
-        <v>0</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="37">
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
         <v>0.54899608865710559</v>
       </c>
-      <c r="E9" s="40">
-        <v>0</v>
-      </c>
-      <c r="F9" s="41">
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
         <v>50</v>
       </c>
-      <c r="G9" s="40">
-        <v>0</v>
-      </c>
-      <c r="H9" s="41">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="J9" s="41">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="43" t="s">
+      <c r="J9" s="47">
+        <v>80</v>
+      </c>
+      <c r="K9" s="55">
+        <v>200</v>
+      </c>
+      <c r="L9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="41">
         <v>1</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="41">
         <v>1</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -4599,13 +4577,13 @@
       <c r="H10" s="8">
         <v>0.1</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="47">
         <v>80</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="43">
         <v>100</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -4631,7 +4609,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>833</v>
       </c>
@@ -4656,14 +4634,14 @@
       <c r="H11" s="8">
         <v>0.1</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="47">
         <v>80</v>
       </c>
-      <c r="K11" s="8">
-        <v>70</v>
+      <c r="K11" s="43">
+        <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>7</v>
@@ -4692,7 +4670,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>834</v>
       </c>
@@ -4717,13 +4695,13 @@
       <c r="H12" s="8">
         <v>0.1</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="47">
         <v>80</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="43">
         <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -4757,182 +4735,182 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
         <v>0.81270252754374595</v>
       </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
         <v>999999</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>43.1</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0.1</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="47">
         <v>80</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="43">
+        <v>20</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.97731691510045371</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>830</v>
+      </c>
+      <c r="O13" s="19">
+        <v>2.2683084899546291E-2</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="18"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="B14" s="45">
+        <v>0</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.84514212982605008</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0</v>
+      </c>
+      <c r="F14" s="48">
+        <v>50</v>
+      </c>
+      <c r="G14" s="47">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H14" s="44">
+        <v>6.8844221105527653E-2</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="J14" s="47">
+        <v>80</v>
+      </c>
+      <c r="K14" s="56">
+        <v>60</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0.95672464997878659</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>830</v>
+      </c>
+      <c r="O14" s="50">
+        <v>4.327535002121341E-2</v>
+      </c>
+      <c r="P14" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>1</v>
+      </c>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="V14" s="34"/>
+      <c r="X14" s="34"/>
+    </row>
+    <row r="15" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="B15" s="45">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.85325443786982236</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="48">
+        <v>50</v>
+      </c>
+      <c r="G15" s="47">
+        <v>28.835000000000001</v>
+      </c>
+      <c r="H15" s="44">
+        <v>6.6920943134535366E-2</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>890</v>
+      </c>
+      <c r="J15" s="47">
+        <v>80</v>
+      </c>
+      <c r="K15" s="56">
         <v>40</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="20">
-        <v>0.97731691510045371</v>
-      </c>
-      <c r="N13" s="20" t="s">
+      <c r="M15" s="50">
+        <v>0.93698224852070999</v>
+      </c>
+      <c r="N15" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="O13" s="20">
-        <v>2.2683084899546291E-2</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="O15" s="50">
+        <v>6.3017751479290007E-2</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="49">
         <v>1</v>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="19"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>893</v>
-      </c>
-      <c r="B14" s="46">
-        <v>0</v>
-      </c>
-      <c r="C14" s="47">
-        <v>0</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0.84514212982605008</v>
-      </c>
-      <c r="E14" s="48">
-        <v>0</v>
-      </c>
-      <c r="F14" s="49">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H14" s="45">
-        <v>6.8844221105527653E-2</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>890</v>
-      </c>
-      <c r="J14" s="49">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="51">
-        <v>0.95672464997878659</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>830</v>
-      </c>
-      <c r="O14" s="51">
-        <v>4.327535002121341E-2</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="50">
-        <v>1</v>
-      </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="V14" s="35"/>
-      <c r="X14" s="35"/>
-    </row>
-    <row r="15" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>894</v>
-      </c>
-      <c r="B15" s="46">
-        <v>0</v>
-      </c>
-      <c r="C15" s="47">
-        <v>0</v>
-      </c>
-      <c r="D15" s="45">
-        <v>0.85325443786982236</v>
-      </c>
-      <c r="E15" s="48">
-        <v>0</v>
-      </c>
-      <c r="F15" s="49">
-        <v>50</v>
-      </c>
-      <c r="G15" s="48">
-        <v>28.835000000000001</v>
-      </c>
-      <c r="H15" s="45">
-        <v>6.6920943134535366E-2</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>890</v>
-      </c>
-      <c r="J15" s="49">
-        <v>0</v>
-      </c>
-      <c r="K15" s="49">
-        <v>0</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="51">
-        <v>0.93698224852070999</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>830</v>
-      </c>
-      <c r="O15" s="51">
-        <v>6.3017751479290007E-2</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="50">
-        <v>1</v>
-      </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="V15" s="35"/>
-      <c r="X15" s="35"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="V15" s="34"/>
+      <c r="X15" s="34"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
@@ -4942,7 +4920,7 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <v>1</v>
       </c>
       <c r="E16" s="8">
@@ -4957,14 +4935,14 @@
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="47">
         <v>240</v>
       </c>
-      <c r="K16" s="8">
-        <v>300</v>
+      <c r="K16" s="56">
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>8</v>
@@ -4985,7 +4963,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -4995,7 +4973,7 @@
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="53">
         <v>0.9375</v>
       </c>
       <c r="E17" s="8">
@@ -5010,14 +4988,14 @@
       <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="47">
         <v>240</v>
       </c>
-      <c r="K17" s="8">
-        <v>275</v>
+      <c r="K17" s="56">
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>29</v>
@@ -5038,7 +5016,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -5048,7 +5026,7 @@
       <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="53">
         <v>0.10526315789473685</v>
       </c>
       <c r="E18" s="8">
@@ -5063,14 +5041,14 @@
       <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="47">
         <v>240</v>
       </c>
-      <c r="K18" s="8">
-        <v>225</v>
+      <c r="K18" s="56">
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>29</v>
@@ -5091,7 +5069,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -5101,7 +5079,7 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="53">
         <v>0.77142857142857146</v>
       </c>
       <c r="E19" s="8">
@@ -5116,14 +5094,14 @@
       <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="47">
         <v>240</v>
       </c>
-      <c r="K19" s="8">
-        <v>175</v>
+      <c r="K19" s="56">
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>29</v>
@@ -5140,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
@@ -5150,7 +5128,7 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <v>0.79710144927536231</v>
       </c>
       <c r="E20" s="8">
@@ -5165,14 +5143,14 @@
       <c r="H20" s="8">
         <v>0</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="47">
         <v>240</v>
       </c>
-      <c r="K20" s="8">
-        <v>125</v>
+      <c r="K20" s="56">
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>29</v>
@@ -5189,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -5199,7 +5177,7 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="53">
         <v>1.7088607594936709</v>
       </c>
       <c r="E21" s="8">
@@ -5214,14 +5192,14 @@
       <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="47">
         <v>240</v>
       </c>
-      <c r="K21" s="8">
-        <v>75</v>
+      <c r="K21" s="56">
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>29</v>
@@ -5238,256 +5216,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="B22" s="22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="54">
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53">
         <v>0.9375</v>
       </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="55">
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="54">
         <v>47.17</v>
       </c>
-      <c r="G22" s="31">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31" t="s">
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="47">
         <v>240</v>
       </c>
-      <c r="K22" s="23">
-        <v>250</v>
-      </c>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="56">
+        <v>270</v>
+      </c>
+      <c r="L22" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>1</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22" t="s">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="21">
         <v>1</v>
       </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="24">
-        <v>0</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="54">
+      <c r="B23" s="23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="55">
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="54">
         <v>0.1</v>
       </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31" t="s">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="47">
         <v>240</v>
       </c>
-      <c r="K23" s="25">
-        <v>200</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="56">
+        <v>210</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="23">
         <v>1</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24" t="s">
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="23">
         <v>1</v>
       </c>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>866</v>
       </c>
-      <c r="B24" s="26">
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="54">
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53">
         <v>0.62790697674418605</v>
       </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="55">
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G24" s="31">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31">
-        <v>0</v>
-      </c>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <v>0</v>
+      </c>
+      <c r="I24" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="47">
         <v>240</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="56">
         <v>150</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="25">
         <v>1</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="B25" s="28">
-        <v>0</v>
-      </c>
-      <c r="C25" s="28">
-        <v>0</v>
-      </c>
-      <c r="D25" s="54">
+      <c r="B25" s="27">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="53">
         <v>0.63218390804597702</v>
       </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="54">
         <v>10.220000000000001</v>
       </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31" t="s">
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="47">
         <v>240</v>
       </c>
-      <c r="K25" s="29">
-        <v>100</v>
-      </c>
-      <c r="L25" s="28" t="s">
+      <c r="K25" s="56">
+        <v>90</v>
+      </c>
+      <c r="L25" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="27">
         <v>1</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
         <v>868</v>
       </c>
-      <c r="B26" s="30">
-        <v>0</v>
-      </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="54">
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53">
         <v>1.35</v>
       </c>
-      <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="54">
         <v>26.68</v>
       </c>
-      <c r="G26" s="31">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31">
-        <v>0</v>
-      </c>
-      <c r="I26" s="31" t="s">
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="47">
         <v>240</v>
       </c>
-      <c r="K26" s="31">
-        <v>50</v>
-      </c>
-      <c r="L26" s="30" t="s">
+      <c r="K26" s="56">
+        <v>30</v>
+      </c>
+      <c r="L26" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="29">
         <v>1</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30" t="s">
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="29">
         <v>1</v>
       </c>
     </row>
@@ -5501,910 +5479,910 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>832</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>869</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>860</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>862</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="B9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>897</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="B14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>893</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>898</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>894</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>893</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>903</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>894</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>847</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>891</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>892</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="C32" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="C33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>838</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="C34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>834</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>871</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="C36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>898</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="C39" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>899</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="C40" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>894</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>839</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>886</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>863</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>903</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>829</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>893</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>904</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>829</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>894</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="C41" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="C42" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="32" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="C43" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>844</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="32" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>879</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="C53" s="31" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>846</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>847</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>832</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>872</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>874</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>862</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>900</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>891</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>905</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>892</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>849</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>850</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>851</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>834</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>845</v>
-      </c>
-      <c r="D38" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>875</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>863</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>901</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>893</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>902</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>894</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="32" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="32" t="s">
+      <c r="C54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="C44" s="32" t="s">
+      <c r="C55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>864</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="32" t="s">
+      <c r="C56" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="32" t="s">
+      <c r="C57" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="32" t="s">
+      <c r="C58" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="32" t="s">
+      <c r="C59" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>877</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="C49" s="32" t="s">
+      <c r="C60" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>882</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>865</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>878</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="C50" s="32" t="s">
+      <c r="C61" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="B62" s="31" t="s">
         <v>866</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>879</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="C51" s="32" t="s">
+      <c r="C62" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>884</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>880</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="C52" s="32" t="s">
+      <c r="C63" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>845</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>864</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="32" t="s">
+      <c r="C64" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>883</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>884</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>885</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6421,9 +6399,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6443,7 +6421,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
@@ -6463,7 +6441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
@@ -6483,7 +6461,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>845</v>
       </c>
@@ -6503,17 +6481,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
         <v>0</v>
       </c>
       <c r="E5">
@@ -6532,32 +6510,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1"/>
-    <col min="18" max="18" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -6616,7 +6594,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>43104</v>
       </c>
@@ -6674,7 +6652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>43106</v>
       </c>
@@ -6732,7 +6710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>43123</v>
       </c>
@@ -6790,7 +6768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>43110</v>
       </c>
@@ -6845,7 +6823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70297</v>
       </c>
@@ -6903,7 +6881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43127</v>
       </c>
@@ -6961,7 +6939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>43581</v>
       </c>
@@ -7016,7 +6994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>43561</v>
       </c>
@@ -7074,7 +7052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>43735</v>
       </c>
@@ -7129,7 +7107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>43366</v>
       </c>
@@ -7184,7 +7162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>104967</v>
       </c>
@@ -7239,7 +7217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>43246</v>
       </c>
@@ -7294,7 +7272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>73883</v>
       </c>
@@ -7352,7 +7330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>43203</v>
       </c>
@@ -7407,7 +7385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>54392</v>
       </c>
@@ -7462,7 +7440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>220711</v>
       </c>
@@ -7520,7 +7498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>43243</v>
       </c>
@@ -7575,7 +7553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>43205</v>
       </c>
@@ -7633,7 +7611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>73896</v>
       </c>
@@ -7691,7 +7669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>43348</v>
       </c>
@@ -7749,7 +7727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>69944</v>
       </c>
@@ -7804,7 +7782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>105004</v>
       </c>
@@ -7859,7 +7837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>104958</v>
       </c>
@@ -7914,7 +7892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>43721</v>
       </c>
@@ -7969,7 +7947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>73960</v>
       </c>
@@ -8027,7 +8005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>110171</v>
       </c>
@@ -8082,7 +8060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>70343</v>
       </c>
@@ -8137,7 +8115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>43505</v>
       </c>
@@ -8195,7 +8173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43407</v>
       </c>
@@ -8250,7 +8228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>43614</v>
       </c>
@@ -8305,7 +8283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43611</v>
       </c>
@@ -8360,7 +8338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>44489</v>
       </c>
@@ -8415,7 +8393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44251</v>
       </c>
@@ -8473,7 +8451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>44252</v>
       </c>
@@ -8531,7 +8509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>43600</v>
       </c>
@@ -8586,7 +8564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>110145</v>
       </c>
@@ -8641,7 +8619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>43597</v>
       </c>
@@ -8696,7 +8674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>43484</v>
       </c>
@@ -8754,7 +8732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43306</v>
       </c>
@@ -8809,7 +8787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43428</v>
       </c>
@@ -8867,7 +8845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43455</v>
       </c>
@@ -8922,7 +8900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43283</v>
       </c>
@@ -8977,7 +8955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43479</v>
       </c>
@@ -9032,7 +9010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44389</v>
       </c>
@@ -9090,7 +9068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44419</v>
       </c>
@@ -9145,7 +9123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44435</v>
       </c>
@@ -9200,7 +9178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>43257</v>
       </c>
@@ -9255,7 +9233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43298</v>
       </c>
@@ -9313,7 +9291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46977</v>
       </c>
@@ -9368,7 +9346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46915</v>
       </c>
@@ -9426,7 +9404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>74832</v>
       </c>
@@ -9481,7 +9459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>46986</v>
       </c>
@@ -9536,7 +9514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>46849</v>
       </c>
@@ -9591,7 +9569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>46947</v>
       </c>
@@ -9649,7 +9627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>44668</v>
       </c>
@@ -9707,7 +9685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>44705</v>
       </c>
@@ -9762,7 +9740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>110415</v>
       </c>
@@ -9817,7 +9795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>110279</v>
       </c>
@@ -9872,7 +9850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>44684</v>
       </c>
@@ -9927,7 +9905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>47048</v>
       </c>
@@ -9985,7 +9963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>44670</v>
       </c>
@@ -10040,7 +10018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>44746</v>
       </c>
@@ -10098,7 +10076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>43815</v>
       </c>
@@ -10153,7 +10131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>43860</v>
       </c>
@@ -10211,7 +10189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>71068</v>
       </c>
@@ -10266,7 +10244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>44323</v>
       </c>
@@ -10324,7 +10302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>74041</v>
       </c>
@@ -10379,7 +10357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>44246</v>
       </c>
@@ -10434,7 +10412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>44302</v>
       </c>
@@ -10489,7 +10467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>43884</v>
       </c>
@@ -10544,7 +10522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>43942</v>
       </c>
@@ -10599,7 +10577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>157889</v>
       </c>
@@ -10654,7 +10632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>43870</v>
       </c>
@@ -10712,7 +10690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>43872</v>
       </c>
@@ -10767,7 +10745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>43938</v>
       </c>
@@ -10822,7 +10800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>43818</v>
       </c>
@@ -10877,7 +10855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>43941</v>
       </c>
@@ -10932,7 +10910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>43822</v>
       </c>
@@ -10987,7 +10965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>43820</v>
       </c>
@@ -11042,7 +11020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>43819</v>
       </c>
@@ -11097,7 +11075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>43917</v>
       </c>
@@ -11155,7 +11133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>43779</v>
       </c>
@@ -11210,7 +11188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>43935</v>
       </c>
@@ -11265,7 +11243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>43895</v>
       </c>
@@ -11320,7 +11298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>43934</v>
       </c>
@@ -11375,7 +11353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>43847</v>
       </c>
@@ -11430,7 +11408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>43971</v>
       </c>
@@ -11488,7 +11466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>46236</v>
       </c>
@@ -11543,7 +11521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>43878</v>
       </c>
@@ -11598,7 +11576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>43784</v>
       </c>
@@ -11656,7 +11634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>43804</v>
       </c>
@@ -11714,7 +11692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>44199</v>
       </c>
@@ -11769,7 +11747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>43913</v>
       </c>
@@ -11827,7 +11805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>43794</v>
       </c>
@@ -11882,7 +11860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>43842</v>
       </c>
@@ -11940,7 +11918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>44733</v>
       </c>
@@ -11998,7 +11976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>44799</v>
       </c>
@@ -12053,7 +12031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>44820</v>
       </c>
@@ -12108,7 +12086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>46317</v>
       </c>
@@ -12166,7 +12144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>110413</v>
       </c>
@@ -12221,7 +12199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>46322</v>
       </c>
@@ -12279,7 +12257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>46378</v>
       </c>
@@ -12334,7 +12312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>74742</v>
       </c>
@@ -12392,7 +12370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>74758</v>
       </c>
@@ -12447,7 +12425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>46982</v>
       </c>
@@ -12502,7 +12480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>73639</v>
       </c>
@@ -12557,7 +12535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>74855</v>
       </c>
@@ -12615,7 +12593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>46914</v>
       </c>
@@ -12670,7 +12648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110066</v>
       </c>
@@ -12728,7 +12706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>46834</v>
       </c>
@@ -12786,7 +12764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>46837</v>
       </c>
@@ -12841,7 +12819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>46949</v>
       </c>
@@ -12899,7 +12877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>46830</v>
       </c>
@@ -12954,7 +12932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>46897</v>
       </c>
@@ -13012,7 +12990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>46944</v>
       </c>
@@ -13067,7 +13045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>46956</v>
       </c>
@@ -13125,7 +13103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>46955</v>
       </c>
@@ -13183,7 +13161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>46869</v>
       </c>
@@ -13238,7 +13216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>46945</v>
       </c>
@@ -13293,7 +13271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>44053</v>
       </c>
@@ -13348,7 +13326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>44485</v>
       </c>
@@ -13403,7 +13381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>44486</v>
       </c>
@@ -13458,7 +13436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>44484</v>
       </c>
@@ -13513,7 +13491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>110204</v>
       </c>
@@ -13568,7 +13546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>74009</v>
       </c>
@@ -13623,7 +13601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>44061</v>
       </c>
@@ -13678,7 +13656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>44090</v>
       </c>
@@ -13733,7 +13711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>44142</v>
       </c>
@@ -13788,7 +13766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>74015</v>
       </c>
@@ -13843,7 +13821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>44060</v>
       </c>
@@ -13898,7 +13876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>200990</v>
       </c>
@@ -13956,7 +13934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>110205</v>
       </c>
@@ -14011,7 +13989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>44138</v>
       </c>
@@ -14069,7 +14047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>44098</v>
       </c>
@@ -14124,7 +14102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>44067</v>
       </c>
@@ -14179,7 +14157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>70868</v>
       </c>
@@ -14234,7 +14212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>44162</v>
       </c>
@@ -14289,7 +14267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>44123</v>
       </c>
@@ -14344,7 +14322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>44128</v>
       </c>
@@ -14402,7 +14380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>74350</v>
       </c>
@@ -14457,7 +14435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>57513</v>
       </c>
@@ -14512,7 +14490,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>44882</v>
       </c>
@@ -14567,7 +14545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>45027</v>
       </c>
@@ -14622,7 +14600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>45034</v>
       </c>
@@ -14680,7 +14658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>189271</v>
       </c>
@@ -14735,7 +14713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>71806</v>
       </c>
@@ -14790,7 +14768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>71805</v>
       </c>
@@ -14845,7 +14823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>73702</v>
       </c>
@@ -14900,7 +14878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>46988</v>
       </c>
@@ -14958,7 +14936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>46989</v>
       </c>
@@ -15016,7 +14994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>46987</v>
       </c>
@@ -15074,7 +15052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>56260</v>
       </c>
@@ -15129,7 +15107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>45063</v>
       </c>
@@ -15187,7 +15165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>44037</v>
       </c>
@@ -15242,7 +15220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>110284</v>
       </c>
@@ -15297,7 +15275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>74359</v>
       </c>
@@ -15352,7 +15330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>45110</v>
       </c>
@@ -15410,7 +15388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>45040</v>
       </c>
@@ -15465,7 +15443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>46328</v>
       </c>
@@ -15520,7 +15498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>71925</v>
       </c>
@@ -15575,7 +15553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>45143</v>
       </c>
@@ -15630,7 +15608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>74679</v>
       </c>
@@ -15688,7 +15666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>74373</v>
       </c>
@@ -15743,7 +15721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>74374</v>
       </c>
@@ -15801,7 +15779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>74683</v>
       </c>
@@ -15856,7 +15834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>45091</v>
       </c>
@@ -15923,20 +15901,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -15953,16 +15931,16 @@
         <v>825</v>
       </c>
       <c r="F1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1" t="s">
         <v>906</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>907</v>
       </c>
-      <c r="H1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>32</v>
       </c>
@@ -16002,13 +15980,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16016,7 +15994,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -16024,7 +16002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -16032,7 +16010,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>831</v>
       </c>

--- a/input_BAT2050.xlsx
+++ b/input_BAT2050.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{504E2F97-DEE9-4EF8-86E5-854BF7A45FBE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4596" tabRatio="912" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" tabRatio="912" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -17,17 +16,17 @@
     <sheet name="Restrictions" sheetId="6" r:id="rId7"/>
     <sheet name="EnergyTypes" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,12 +105,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,12 +165,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,12 +250,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,12 +284,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3049,7 +3048,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -3232,7 +3231,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
-    <cellStyle name="Neutral 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Neutral 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3276,35 +3275,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:S167" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:S167" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:S167" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:S167"/>
   <sortState ref="A2:R167">
     <sortCondition ref="E1:E167"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FacilityID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="FacilityName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PostalCode"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="City"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Spalte2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TotalQuantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[Mt CO2/a]">
+    <tableColumn id="1" name="FacilityID"/>
+    <tableColumn id="2" name="FacilityName"/>
+    <tableColumn id="3" name="PostalCode"/>
+    <tableColumn id="4" name="City"/>
+    <tableColumn id="5" name="Spalte2"/>
+    <tableColumn id="6" name="TotalQuantity"/>
+    <tableColumn id="7" name="[Mt CO2/a]">
       <calculatedColumnFormula>F2/10^9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Plant size [MW]" dataDxfId="0">
+    <tableColumn id="8" name="Plant size [MW]" dataDxfId="0">
       <calculatedColumnFormula>(G2/3.88*34.2*10^9)/(8000*3600)*0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MethodTypeName"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Spalte1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="StreetName"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BuildingNumber"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lat"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Long"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="MainIAActivityCode"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="MainIASectorName"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="MainIAActivityName"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="MainIASubActivityName"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="CO2 Cost pkg"/>
+    <tableColumn id="9" name="MethodTypeName"/>
+    <tableColumn id="10" name="Spalte1"/>
+    <tableColumn id="11" name="StreetName"/>
+    <tableColumn id="12" name="BuildingNumber"/>
+    <tableColumn id="13" name="Lat"/>
+    <tableColumn id="14" name="Long"/>
+    <tableColumn id="15" name="MainIAActivityCode"/>
+    <tableColumn id="16" name="MainIASectorName"/>
+    <tableColumn id="17" name="MainIAActivityName"/>
+    <tableColumn id="18" name="MainIASubActivityName"/>
+    <tableColumn id="19" name="CO2 Cost pkg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3353,7 +3352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3386,26 +3385,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3438,23 +3420,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3630,22 +3595,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3830,20 +3795,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4014,40 +3979,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="32" customWidth="1"/>
     <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -5476,21 +5441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5504,7 +5469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>835</v>
       </c>
@@ -5518,7 +5483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>836</v>
       </c>
@@ -5532,7 +5497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>869</v>
       </c>
@@ -5546,7 +5511,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
@@ -5560,7 +5525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>33</v>
       </c>
@@ -5574,7 +5539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>870</v>
       </c>
@@ -5588,7 +5553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>895</v>
       </c>
@@ -5602,7 +5567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>896</v>
       </c>
@@ -5616,7 +5581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>34</v>
       </c>
@@ -5630,7 +5595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>837</v>
       </c>
@@ -5644,7 +5609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>838</v>
       </c>
@@ -5658,7 +5623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>871</v>
       </c>
@@ -5672,7 +5637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>897</v>
       </c>
@@ -5686,7 +5651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>898</v>
       </c>
@@ -5700,7 +5665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>839</v>
       </c>
@@ -5714,7 +5679,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>840</v>
       </c>
@@ -5728,7 +5693,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>841</v>
       </c>
@@ -5742,7 +5707,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>886</v>
       </c>
@@ -5756,7 +5721,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>902</v>
       </c>
@@ -5770,7 +5735,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>903</v>
       </c>
@@ -5784,7 +5749,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>842</v>
       </c>
@@ -5798,7 +5763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>843</v>
       </c>
@@ -5812,7 +5777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>844</v>
       </c>
@@ -5826,7 +5791,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>846</v>
       </c>
@@ -5840,7 +5805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>847</v>
       </c>
@@ -5854,7 +5819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>872</v>
       </c>
@@ -5868,7 +5833,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>37</v>
       </c>
@@ -5882,7 +5847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>38</v>
       </c>
@@ -5896,7 +5861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>874</v>
       </c>
@@ -5910,7 +5875,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>899</v>
       </c>
@@ -5924,7 +5889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>904</v>
       </c>
@@ -5938,7 +5903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>39</v>
       </c>
@@ -5952,7 +5917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>848</v>
       </c>
@@ -5966,7 +5931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>849</v>
       </c>
@@ -5980,7 +5945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>850</v>
       </c>
@@ -5994,7 +5959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>851</v>
       </c>
@@ -6008,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>852</v>
       </c>
@@ -6022,7 +5987,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>875</v>
       </c>
@@ -6036,7 +6001,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>900</v>
       </c>
@@ -6050,7 +6015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>901</v>
       </c>
@@ -6064,7 +6029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>40</v>
       </c>
@@ -6078,7 +6043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>52</v>
       </c>
@@ -6092,7 +6057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>876</v>
       </c>
@@ -6106,7 +6071,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>46</v>
       </c>
@@ -6120,7 +6085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>47</v>
       </c>
@@ -6134,7 +6099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>60</v>
       </c>
@@ -6148,7 +6113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>61</v>
       </c>
@@ -6162,7 +6127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>877</v>
       </c>
@@ -6176,7 +6141,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>878</v>
       </c>
@@ -6190,7 +6155,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>879</v>
       </c>
@@ -6204,7 +6169,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>880</v>
       </c>
@@ -6218,7 +6183,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>853</v>
       </c>
@@ -6232,7 +6197,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>41</v>
       </c>
@@ -6246,7 +6211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>53</v>
       </c>
@@ -6260,7 +6225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>881</v>
       </c>
@@ -6274,7 +6239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>48</v>
       </c>
@@ -6288,7 +6253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>49</v>
       </c>
@@ -6302,7 +6267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>62</v>
       </c>
@@ -6316,7 +6281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>63</v>
       </c>
@@ -6330,7 +6295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>882</v>
       </c>
@@ -6344,7 +6309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>883</v>
       </c>
@@ -6358,7 +6323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>884</v>
       </c>
@@ -6372,7 +6337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>885</v>
       </c>
@@ -6392,14 +6357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6507,35 +6472,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="46" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="21.5546875" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -6594,7 +6559,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>43104</v>
       </c>
@@ -6652,7 +6617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43106</v>
       </c>
@@ -6710,7 +6675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43123</v>
       </c>
@@ -6768,7 +6733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>43110</v>
       </c>
@@ -6823,7 +6788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70297</v>
       </c>
@@ -6881,7 +6846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43127</v>
       </c>
@@ -6939,7 +6904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>43581</v>
       </c>
@@ -6994,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>43561</v>
       </c>
@@ -7052,7 +7017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43735</v>
       </c>
@@ -7107,7 +7072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43366</v>
       </c>
@@ -7162,7 +7127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>104967</v>
       </c>
@@ -7217,7 +7182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>43246</v>
       </c>
@@ -7272,7 +7237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>73883</v>
       </c>
@@ -7330,7 +7295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43203</v>
       </c>
@@ -7385,7 +7350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>54392</v>
       </c>
@@ -7440,7 +7405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>220711</v>
       </c>
@@ -7498,7 +7463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>43243</v>
       </c>
@@ -7553,7 +7518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43205</v>
       </c>
@@ -7611,7 +7576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>73896</v>
       </c>
@@ -7669,7 +7634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>43348</v>
       </c>
@@ -7727,7 +7692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>69944</v>
       </c>
@@ -7782,7 +7747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>105004</v>
       </c>
@@ -7837,7 +7802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>104958</v>
       </c>
@@ -7892,7 +7857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>43721</v>
       </c>
@@ -7947,7 +7912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>73960</v>
       </c>
@@ -8005,7 +7970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>110171</v>
       </c>
@@ -8060,7 +8025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>70343</v>
       </c>
@@ -8115,7 +8080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>43505</v>
       </c>
@@ -8173,7 +8138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>43407</v>
       </c>
@@ -8228,7 +8193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>43614</v>
       </c>
@@ -8283,7 +8248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43611</v>
       </c>
@@ -8338,7 +8303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44489</v>
       </c>
@@ -8393,7 +8358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44251</v>
       </c>
@@ -8451,7 +8416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>44252</v>
       </c>
@@ -8509,7 +8474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43600</v>
       </c>
@@ -8564,7 +8529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>110145</v>
       </c>
@@ -8619,7 +8584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>43597</v>
       </c>
@@ -8674,7 +8639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>43484</v>
       </c>
@@ -8732,7 +8697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43306</v>
       </c>
@@ -8787,7 +8752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43428</v>
       </c>
@@ -8845,7 +8810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43455</v>
       </c>
@@ -8900,7 +8865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43283</v>
       </c>
@@ -8955,7 +8920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43479</v>
       </c>
@@ -9010,7 +8975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44389</v>
       </c>
@@ -9068,7 +9033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44419</v>
       </c>
@@ -9123,7 +9088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44435</v>
       </c>
@@ -9178,7 +9143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43257</v>
       </c>
@@ -9233,7 +9198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43298</v>
       </c>
@@ -9291,7 +9256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46977</v>
       </c>
@@ -9346,7 +9311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46915</v>
       </c>
@@ -9404,7 +9369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>74832</v>
       </c>
@@ -9459,7 +9424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46986</v>
       </c>
@@ -9514,7 +9479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46849</v>
       </c>
@@ -9569,7 +9534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>46947</v>
       </c>
@@ -9627,7 +9592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44668</v>
       </c>
@@ -9685,7 +9650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44705</v>
       </c>
@@ -9740,7 +9705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>110415</v>
       </c>
@@ -9795,7 +9760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>110279</v>
       </c>
@@ -9850,7 +9815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44684</v>
       </c>
@@ -9905,7 +9870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>47048</v>
       </c>
@@ -9963,7 +9928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>44670</v>
       </c>
@@ -10018,7 +9983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44746</v>
       </c>
@@ -10076,7 +10041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>43815</v>
       </c>
@@ -10131,7 +10096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>43860</v>
       </c>
@@ -10189,7 +10154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>71068</v>
       </c>
@@ -10244,7 +10209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>44323</v>
       </c>
@@ -10302,7 +10267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>74041</v>
       </c>
@@ -10357,7 +10322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>44246</v>
       </c>
@@ -10412,7 +10377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>44302</v>
       </c>
@@ -10467,7 +10432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>43884</v>
       </c>
@@ -10522,7 +10487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>43942</v>
       </c>
@@ -10577,7 +10542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>157889</v>
       </c>
@@ -10632,7 +10597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>43870</v>
       </c>
@@ -10690,7 +10655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>43872</v>
       </c>
@@ -10745,7 +10710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43938</v>
       </c>
@@ -10800,7 +10765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43818</v>
       </c>
@@ -10855,7 +10820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>43941</v>
       </c>
@@ -10910,7 +10875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>43822</v>
       </c>
@@ -10965,7 +10930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>43820</v>
       </c>
@@ -11020,7 +10985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>43819</v>
       </c>
@@ -11075,7 +11040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>43917</v>
       </c>
@@ -11133,7 +11098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>43779</v>
       </c>
@@ -11188,7 +11153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>43935</v>
       </c>
@@ -11243,7 +11208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>43895</v>
       </c>
@@ -11298,7 +11263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>43934</v>
       </c>
@@ -11353,7 +11318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>43847</v>
       </c>
@@ -11408,7 +11373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>43971</v>
       </c>
@@ -11466,7 +11431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>46236</v>
       </c>
@@ -11521,7 +11486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>43878</v>
       </c>
@@ -11576,7 +11541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>43784</v>
       </c>
@@ -11634,7 +11599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>43804</v>
       </c>
@@ -11692,7 +11657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>44199</v>
       </c>
@@ -11747,7 +11712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>43913</v>
       </c>
@@ -11805,7 +11770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>43794</v>
       </c>
@@ -11860,7 +11825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>43842</v>
       </c>
@@ -11918,7 +11883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>44733</v>
       </c>
@@ -11976,7 +11941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>44799</v>
       </c>
@@ -12031,7 +11996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>44820</v>
       </c>
@@ -12086,7 +12051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>46317</v>
       </c>
@@ -12144,7 +12109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>110413</v>
       </c>
@@ -12199,7 +12164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>46322</v>
       </c>
@@ -12257,7 +12222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>46378</v>
       </c>
@@ -12312,7 +12277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>74742</v>
       </c>
@@ -12370,7 +12335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>74758</v>
       </c>
@@ -12425,7 +12390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>46982</v>
       </c>
@@ -12480,7 +12445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>73639</v>
       </c>
@@ -12535,7 +12500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>74855</v>
       </c>
@@ -12593,7 +12558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>46914</v>
       </c>
@@ -12648,7 +12613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110066</v>
       </c>
@@ -12706,7 +12671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>46834</v>
       </c>
@@ -12764,7 +12729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>46837</v>
       </c>
@@ -12819,7 +12784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>46949</v>
       </c>
@@ -12877,7 +12842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>46830</v>
       </c>
@@ -12932,7 +12897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>46897</v>
       </c>
@@ -12990,7 +12955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>46944</v>
       </c>
@@ -13045,7 +13010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>46956</v>
       </c>
@@ -13103,7 +13068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>46955</v>
       </c>
@@ -13161,7 +13126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>46869</v>
       </c>
@@ -13216,7 +13181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>46945</v>
       </c>
@@ -13271,7 +13236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>44053</v>
       </c>
@@ -13326,7 +13291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>44485</v>
       </c>
@@ -13381,7 +13346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>44486</v>
       </c>
@@ -13436,7 +13401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>44484</v>
       </c>
@@ -13491,7 +13456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>110204</v>
       </c>
@@ -13546,7 +13511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>74009</v>
       </c>
@@ -13601,7 +13566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>44061</v>
       </c>
@@ -13656,7 +13621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>44090</v>
       </c>
@@ -13711,7 +13676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>44142</v>
       </c>
@@ -13766,7 +13731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>74015</v>
       </c>
@@ -13821,7 +13786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44060</v>
       </c>
@@ -13876,7 +13841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>200990</v>
       </c>
@@ -13934,7 +13899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>110205</v>
       </c>
@@ -13989,7 +13954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>44138</v>
       </c>
@@ -14047,7 +14012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>44098</v>
       </c>
@@ -14102,7 +14067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44067</v>
       </c>
@@ -14157,7 +14122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>70868</v>
       </c>
@@ -14212,7 +14177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>44162</v>
       </c>
@@ -14267,7 +14232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>44123</v>
       </c>
@@ -14322,7 +14287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>44128</v>
       </c>
@@ -14380,7 +14345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>74350</v>
       </c>
@@ -14435,7 +14400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>57513</v>
       </c>
@@ -14490,7 +14455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>44882</v>
       </c>
@@ -14545,7 +14510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>45027</v>
       </c>
@@ -14600,7 +14565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>45034</v>
       </c>
@@ -14658,7 +14623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>189271</v>
       </c>
@@ -14713,7 +14678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>71806</v>
       </c>
@@ -14768,7 +14733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>71805</v>
       </c>
@@ -14823,7 +14788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>73702</v>
       </c>
@@ -14878,7 +14843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>46988</v>
       </c>
@@ -14936,7 +14901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>46989</v>
       </c>
@@ -14994,7 +14959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>46987</v>
       </c>
@@ -15052,7 +15017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>56260</v>
       </c>
@@ -15107,7 +15072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>45063</v>
       </c>
@@ -15165,7 +15130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>44037</v>
       </c>
@@ -15220,7 +15185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>110284</v>
       </c>
@@ -15275,7 +15240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>74359</v>
       </c>
@@ -15330,7 +15295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>45110</v>
       </c>
@@ -15388,7 +15353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>45040</v>
       </c>
@@ -15443,7 +15408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>46328</v>
       </c>
@@ -15498,7 +15463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>71925</v>
       </c>
@@ -15553,7 +15518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>45143</v>
       </c>
@@ -15608,7 +15573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>74679</v>
       </c>
@@ -15666,7 +15631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>74373</v>
       </c>
@@ -15721,7 +15686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>74374</v>
       </c>
@@ -15779,7 +15744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>74683</v>
       </c>
@@ -15834,7 +15799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>45091</v>
       </c>
@@ -15898,20 +15863,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -15960,7 +15925,7 @@
         <v>1E-4</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>150</v>
@@ -15973,17 +15938,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
